--- a/genshin/462217512750129561_2020-11-27_14-00-01.xlsx
+++ b/genshin/462217512750129561_2020-11-27_14-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-19 17:24:16</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44184.72518518518</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -640,10 +654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-17 17:06:22</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44182.71275462963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -707,10 +719,8 @@
           <t>3824556999</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-17 01:34:43</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44182.06577546296</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -778,10 +788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:44:33</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44177.07260416666</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -857,10 +865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-06 19:19:36</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44171.80527777778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -920,10 +926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-30 23:51:58</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44165.99442129629</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -991,10 +995,8 @@
           <t>3752202768</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-30 15:41:22</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44165.65372685185</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1062,10 +1064,8 @@
           <t>3762682024</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-30 12:28:00</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44165.51944444444</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1141,10 +1141,8 @@
           <t>3751834968</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-30 12:16:42</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44165.51159722222</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1220,10 +1218,8 @@
           <t>3762682024</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-30 12:11:52</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44165.50824074074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1299,10 +1295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-29 23:10:17</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44164.96547453704</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1370,10 +1364,8 @@
           <t>3760464088</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-29 18:59:00</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44164.79097222222</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1445,10 +1437,8 @@
           <t>3751834968</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-29 04:24:34</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44164.18372685185</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1516,10 +1506,8 @@
           <t>3757806465</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-29 00:03:01</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44164.00209490741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1591,10 +1579,8 @@
           <t>3751866893</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-29 00:01:59</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44164.00137731482</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1666,10 +1652,8 @@
           <t>3757193364</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-28 21:42:39</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44163.90461805555</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1745,10 +1729,8 @@
           <t>3757058259</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-28 21:10:32</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44163.88231481481</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1820,10 +1802,8 @@
           <t>3754712398</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:52:08</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44163.7862037037</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1891,10 +1871,8 @@
           <t>3754712398</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:50:47</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44163.7852662037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1962,10 +1940,8 @@
           <t>3751751256</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:14:55</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44163.76035879629</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2033,10 +2009,8 @@
           <t>3751751256</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:14:50</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44163.76030092593</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2104,10 +2078,8 @@
           <t>3751834968</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-28 18:05:45</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44163.75399305556</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2183,10 +2155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-28 17:11:06</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44163.71604166667</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2254,10 +2224,8 @@
           <t>3755653164</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-28 14:50:18</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44163.61826388889</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2329,10 +2297,8 @@
           <t>3755651038</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-28 14:48:08</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44163.61675925926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2408,10 +2374,8 @@
           <t>3751860235</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-28 12:57:22</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44163.53983796296</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2483,10 +2447,8 @@
           <t>3751803288</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-28 12:57:00</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44163.53958333333</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2546,10 +2508,8 @@
           <t>3754755079</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-28 10:19:46</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44163.43039351852</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2621,10 +2581,8 @@
           <t>3754712398</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-28 10:05:27</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44163.42045138889</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2696,10 +2654,8 @@
           <t>3751866893</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-28 09:28:23</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44163.39471064815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2771,10 +2727,8 @@
           <t>3751923555</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-28 02:08:10</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44163.08900462963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2842,10 +2796,8 @@
           <t>3752202768</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-28 01:22:56</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44163.0575925926</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2913,10 +2865,8 @@
           <t>3753984545</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:31:23</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44163.02179398148</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2984,10 +2934,8 @@
           <t>3753987448</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:30:36</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44163.02125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3055,10 +3003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:28:44</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44163.0199537037</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3126,10 +3072,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-28 00:06:14</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44163.0043287037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3193,10 +3137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:51:14</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44162.99391203704</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3272,10 +3214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:38:02</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44162.98474537037</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3341,10 +3281,8 @@
           <t>3752031336</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:36:47</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44162.98387731481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3420,10 +3358,8 @@
           <t>3753640214</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:33:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44162.98175925926</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3499,10 +3435,8 @@
           <t>3752031336</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:33:15</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44162.98142361111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3575,10 +3509,8 @@
           <t>3753709570</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:21:42</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44162.97340277778</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -3642,10 +3574,8 @@
           <t>3753640214</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-27 23:03:20</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44162.96064814815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3717,10 +3647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:52:10</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44162.95289351852</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3784,10 +3712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:16:21</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44162.92802083334</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3851,10 +3777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:14:52</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44162.92699074074</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3914,10 +3838,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-27 22:13:09</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44162.92579861111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3981,10 +3903,8 @@
           <t>3751762135</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:48:40</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44162.90879629629</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4052,10 +3972,8 @@
           <t>3751762135</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:39:13</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44162.9022337963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4131,10 +4049,8 @@
           <t>3751866893</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:11:14</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44162.88280092592</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4210,10 +4126,8 @@
           <t>3751866893</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:48:09</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44162.86677083333</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4285,10 +4199,8 @@
           <t>3752938951</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:45:20</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44162.86481481481</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4360,10 +4272,8 @@
           <t>3751803288</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:44:31</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44162.86424768518</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4431,10 +4341,8 @@
           <t>3753050831</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:44:10</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44162.86400462963</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4506,10 +4414,8 @@
           <t>3751787832</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:43:16</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44162.86337962963</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4577,10 +4483,8 @@
           <t>3751774793</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:42:44</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44162.86300925926</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4648,10 +4552,8 @@
           <t>3751751256</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:39:22</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44162.86067129629</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4727,10 +4629,8 @@
           <t>3752922388</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:35:52</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44162.85824074074</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4806,10 +4706,8 @@
           <t>3752938951</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:33:03</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44162.85628472222</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4887,10 +4785,8 @@
           <t>3752922388</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:31:08</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44162.8549537037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4966,10 +4862,8 @@
           <t>3752990707</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:28:38</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44162.85321759259</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5033,10 +4927,8 @@
           <t>3752983230</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:28:03</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44162.8528125</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5108,10 +5000,8 @@
           <t>3752922388</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:27:31</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44162.85244212963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5187,10 +5077,8 @@
           <t>3752978656</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:27:02</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44162.85210648148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5258,10 +5146,8 @@
           <t>3752980818</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:26:19</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44162.8516087963</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5325,10 +5211,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:25:07</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44162.85077546296</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5396,10 +5280,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:24:47</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44162.85054398148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5467,10 +5349,8 @@
           <t>3751866158</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:23:51</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44162.84989583334</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5542,10 +5422,8 @@
           <t>3752922388</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:23:45</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44162.84982638889</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5621,10 +5499,8 @@
           <t>3751860235</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:21:48</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44162.84847222222</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5696,10 +5572,8 @@
           <t>3751860235</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:20:54</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44162.84784722222</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5771,10 +5645,8 @@
           <t>3752952424</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:20:05</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44162.8472800926</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5846,10 +5718,8 @@
           <t>3752948575</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:19:21</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44162.84677083333</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5921,10 +5791,8 @@
           <t>3752950379</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:18:35</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44162.84623842593</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5996,10 +5864,8 @@
           <t>3752938951</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:17:31</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44162.84549768519</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6071,10 +5937,8 @@
           <t>3752930724</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:13:20</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44162.84259259259</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6146,10 +6010,8 @@
           <t>3752922388</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:12:28</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44162.84199074074</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6225,10 +6087,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:04:11</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44162.83623842592</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6292,10 +6152,8 @@
           <t>3752876593</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-27 20:00:41</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44162.83380787037</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6367,10 +6225,8 @@
           <t>3752862451</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:57:29</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44162.83158564815</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6442,10 +6298,8 @@
           <t>3752820272</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:44:31</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44162.82258101852</v>
       </c>
       <c r="I82" t="n">
         <v>5</v>
@@ -6513,10 +6367,8 @@
           <t>3752776942</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:34:23</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44162.81554398148</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6580,10 +6432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:29:01</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44162.81181712963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6659,10 +6509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:26:29</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44162.81005787037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6749,10 +6597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:19:21</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44162.80510416667</v>
       </c>
       <c r="I86" t="n">
         <v>5</v>
@@ -6824,10 +6670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:18:48</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44162.80472222222</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6899,10 +6743,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:16:19</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44162.80299768518</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6978,10 +6820,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-27 19:14:08</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44162.80148148148</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7049,10 +6889,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:59:35</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44162.79137731482</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7124,10 +6962,8 @@
           <t>3752155400</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:59:31</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44162.79133101852</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7192,10 +7028,8 @@
           <t>3752603541</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:58:39</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44162.79072916666</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7271,10 +7105,8 @@
           <t>3752237567</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:57:49</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44162.79015046296</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7346,10 +7178,8 @@
           <t>3752397831</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:56:05</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44162.78894675926</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7421,10 +7251,8 @@
           <t>3752603541</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:52:28</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44162.78643518518</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7488,10 +7316,8 @@
           <t>3751809789</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:42:50</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44162.77974537037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7559,10 +7385,8 @@
           <t>3752554438</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:42:10</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44162.77928240741</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7626,10 +7450,8 @@
           <t>3752550452</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:39:16</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44162.77726851852</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7697,10 +7519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:37:54</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44162.77631944444</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7768,10 +7588,8 @@
           <t>3752510160</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:28:19</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44162.76966435185</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7839,10 +7657,8 @@
           <t>3752497609</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:26:27</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44162.76836805556</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7910,10 +7726,8 @@
           <t>3751768473</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:10:22</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44162.75719907408</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7989,10 +7803,8 @@
           <t>3751768473</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:09:14</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44162.75641203704</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8056,10 +7868,8 @@
           <t>3751768473</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:05:21</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44162.75371527778</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8135,10 +7945,8 @@
           <t>3751923555</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:04:12</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44162.75291666666</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8203,10 +8011,8 @@
           <t>3752373376</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:04:04</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44162.75282407407</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8270,10 +8076,8 @@
           <t>3752397831</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:02:03</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44162.75142361111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8341,10 +8145,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:59:05</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44162.74936342592</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8416,10 +8218,8 @@
           <t>3752373376</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:57:28</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44162.74824074074</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8489,10 +8289,8 @@
           <t>3752155400</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:57:03</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44162.74795138889</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8568,10 +8366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:55:48</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44162.74708333334</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8635,10 +8431,8 @@
           <t>3752368695</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:55:18</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44162.74673611111</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8698,10 +8492,8 @@
           <t>3752231665</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:52:18</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44162.74465277778</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8778,10 +8570,8 @@
           <t>3752237567</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:51:48</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44162.74430555556</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8857,10 +8647,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:50:13</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44162.74320601852</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8932,10 +8720,8 @@
           <t>3752202768</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:47:49</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44162.74153935185</v>
       </c>
       <c r="I116" t="n">
         <v>5</v>
@@ -9007,10 +8793,8 @@
           <t>3752264347</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:46:31</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44162.74063657408</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9078,10 +8862,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:44:56</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44162.73953703704</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9145,10 +8927,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:38:17</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44162.73491898148</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9224,10 +9004,8 @@
           <t>3752155400</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:35:41</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44162.73311342593</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9303,10 +9081,8 @@
           <t>3751923555</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:34:28</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44162.73226851852</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9370,10 +9146,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:34:09</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44162.73204861111</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9445,10 +9219,8 @@
           <t>3751923555</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:33:24</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44162.73152777777</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9512,10 +9284,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:30:46</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44162.72969907407</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9587,10 +9357,8 @@
           <t>3752264347</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:30:17</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44162.72936342593</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9654,10 +9422,8 @@
           <t>3752264347</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:26:27</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44162.72670138889</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9725,10 +9491,8 @@
           <t>3752178867</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:23:03</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44162.72434027777</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9800,10 +9564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:20:48</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44162.72277777778</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -9867,10 +9629,8 @@
           <t>3752237567</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:18:47</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44162.72137731482</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9942,10 +9702,8 @@
           <t>3751855915</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:18:29</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44162.72116898148</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10017,10 +9775,8 @@
           <t>3752235783</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:17:09</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44162.72024305556</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10092,10 +9848,8 @@
           <t>3752231665</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:15:09</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44162.71885416667</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10164,10 +9918,8 @@
           <t>3752218913</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:14:08</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44162.71814814815</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10243,10 +9995,8 @@
           <t>3752218913</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:12:42</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44162.71715277778</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10314,10 +10064,8 @@
           <t>3752031336</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:07:41</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44162.71366898148</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10393,10 +10141,8 @@
           <t>3752202768</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:07:07</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44162.71327546296</v>
       </c>
       <c r="I136" t="n">
         <v>45</v>
@@ -10465,10 +10211,8 @@
           <t>3752028019</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:03:24</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44162.71069444445</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10547,10 +10291,8 @@
           <t>3752061632</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:03:04</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44162.71046296296</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10627,10 +10369,8 @@
           <t>3752073550</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:02:19</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44162.70994212963</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10706,10 +10446,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:01:58</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44162.70969907408</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10777,10 +10515,8 @@
           <t>3752178881</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:01:51</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44162.70961805555</v>
       </c>
       <c r="I141" t="n">
         <v>7</v>
@@ -10848,10 +10584,8 @@
           <t>3752178867</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:01:50</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44162.70960648148</v>
       </c>
       <c r="I142" t="n">
         <v>4</v>
@@ -10921,10 +10655,8 @@
           <t>3752165290</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:01:27</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44162.70934027778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11000,10 +10732,8 @@
           <t>3752011801</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:01:02</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44162.70905092593</v>
       </c>
       <c r="I144" t="n">
         <v>6</v>
@@ -11071,10 +10801,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:59:09</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44162.70774305556</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11144,10 +10872,8 @@
           <t>3752155400</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:58:57</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44162.70760416667</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11223,10 +10949,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:57:33</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44162.70663194444</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11295,10 +11019,8 @@
           <t>3752163671</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:57:08</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44162.7063425926</v>
       </c>
       <c r="I148" t="n">
         <v>48</v>
@@ -11370,10 +11092,8 @@
           <t>3752165290</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:55:38</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44162.70530092593</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11445,10 +11165,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:51:45</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44162.70260416667</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11512,10 +11230,8 @@
           <t>3751805740</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:51:25</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44162.70237268518</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11579,10 +11295,8 @@
           <t>3752155400</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:51:11</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44162.70221064815</v>
       </c>
       <c r="I152" t="n">
         <v>2</v>
@@ -11658,10 +11372,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:50:59</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44162.70207175926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11725,10 +11437,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:50:34</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44162.70178240741</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11792,10 +11502,8 @@
           <t>3752030604</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:47:12</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44162.69944444444</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11867,10 +11575,8 @@
           <t>3752129376</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:45:11</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44162.69804398148</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11934,10 +11640,8 @@
           <t>3751977518</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:44:34</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44162.69761574074</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12013,10 +11717,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:40:15</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44162.69461805555</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12081,10 +11783,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:39:43</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44162.69424768518</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12152,10 +11852,8 @@
           <t>3752109280</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:39:11</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44162.69387731481</v>
       </c>
       <c r="I160" t="n">
         <v>10</v>
@@ -12222,10 +11920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:33:22</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44162.68983796296</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12297,10 +11993,8 @@
           <t>3751923555</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:29:21</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44162.68704861111</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12368,10 +12062,8 @@
           <t>3752073550</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:27:07</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44162.68549768518</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12443,10 +12135,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:24:22</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44162.68358796297</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12510,10 +12200,8 @@
           <t>3751923555</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:23:36</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44162.68305555556</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12577,10 +12265,8 @@
           <t>3752063334</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:22:30</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44162.68229166666</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12652,10 +12338,8 @@
           <t>3752061632</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:20:42</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44162.68104166666</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12723,10 +12407,8 @@
           <t>3752047567</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:16:23</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44162.67804398148</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12794,10 +12476,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:59</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44162.67429398148</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12873,10 +12553,8 @@
           <t>3752028019</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:10:26</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44162.67391203704</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12948,10 +12626,8 @@
           <t>3752031336</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:09:42</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44162.67340277778</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13015,10 +12691,8 @@
           <t>3752026761</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:09:01</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44162.67292824074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13094,10 +12768,8 @@
           <t>3752030604</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:08:59</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44162.67290509259</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13165,10 +12837,8 @@
           <t>3752014717</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:08:57</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44162.67288194445</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13232,10 +12902,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:08:12</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44162.67236111111</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13311,10 +12979,8 @@
           <t>3752018626</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:07:00</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44162.67152777778</v>
       </c>
       <c r="I176" t="n">
         <v>68</v>
@@ -13378,10 +13044,8 @@
           <t>3752014717</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:06:50</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44162.67141203704</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13457,10 +13121,8 @@
           <t>3751866158</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:06:48</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44162.67138888889</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13536,10 +13198,8 @@
           <t>3751764523</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:05:52</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44162.67074074074</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13607,10 +13267,8 @@
           <t>3752011801</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:03:34</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44162.66914351852</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -13682,10 +13340,8 @@
           <t>3752004906</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:03:18</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44162.66895833334</v>
       </c>
       <c r="I181" t="n">
         <v>8</v>
@@ -13761,10 +13417,8 @@
           <t>3752008644</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:02:16</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44162.66824074074</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13828,10 +13482,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:00:51</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44162.66725694444</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13896,10 +13548,8 @@
           <t>3751764523</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:58:44</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44162.66578703704</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13967,10 +13617,8 @@
           <t>3751834968</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:56:50</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44162.66446759259</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -14038,10 +13686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:55:19</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44162.66341435185</v>
       </c>
       <c r="I186" t="n">
         <v>6</v>
@@ -14106,10 +13752,8 @@
           <t>3751860235</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:54:55</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44162.66313657408</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14169,10 +13813,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:52:25</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44162.66140046297</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14237,10 +13879,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:51:19</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44162.66063657407</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14316,10 +13956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:50:41</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44162.66019675926</v>
       </c>
       <c r="I190" t="n">
         <v>8</v>
@@ -14387,10 +14025,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:49:44</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44162.65953703703</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14466,10 +14102,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:49:25</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44162.65931712963</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14534,10 +14168,8 @@
           <t>3751977518</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:48:58</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44162.65900462963</v>
       </c>
       <c r="I193" t="n">
         <v>85</v>
@@ -14609,10 +14241,8 @@
           <t>3751966454</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:48:55</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44162.65896990741</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14676,10 +14306,8 @@
           <t>3751834968</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:48:33</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44162.65871527778</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14751,10 +14379,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:47:21</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44162.65788194445</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14830,10 +14456,8 @@
           <t>3751966454</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:46:05</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44162.65700231482</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14909,10 +14533,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:45:17</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44162.65644675926</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14980,10 +14602,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:45:00</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44162.65625</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15048,10 +14668,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:44:38</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44162.65599537037</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15119,10 +14737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:43:19</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44162.65508101852</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15190,10 +14806,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:43:17</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44162.65505787037</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15269,10 +14883,8 @@
           <t>3751787974</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:41:51</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44162.6540625</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15337,10 +14949,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:40:30</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44162.653125</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15404,10 +15014,8 @@
           <t>3751949783</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:39:56</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44162.65273148148</v>
       </c>
       <c r="I205" t="n">
         <v>25</v>
@@ -15472,10 +15080,8 @@
           <t>3751937260</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:35:17</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44162.64950231482</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15539,10 +15145,8 @@
           <t>3751945859</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:35:15</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44162.64947916667</v>
       </c>
       <c r="I207" t="n">
         <v>4</v>
@@ -15607,10 +15211,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:32:55</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44162.6478587963</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15678,10 +15280,8 @@
           <t>3751933294</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:32:19</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44162.64744212963</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15749,10 +15349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:31:39</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44162.64697916667</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15825,10 +15423,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:31:21</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44162.64677083334</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15892,10 +15488,8 @@
           <t>3751923555</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:31:01</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44162.64653935185</v>
       </c>
       <c r="I212" t="n">
         <v>11</v>
@@ -15959,10 +15553,8 @@
           <t>3751758799</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:30:32</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44162.64620370371</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16038,10 +15630,8 @@
           <t>3751900812</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:30:22</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44162.64608796296</v>
       </c>
       <c r="I214" t="n">
         <v>15</v>
@@ -16105,10 +15695,8 @@
           <t>3751900812</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:28:42</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44162.64493055556</v>
       </c>
       <c r="I215" t="n">
         <v>9</v>
@@ -16172,10 +15760,8 @@
           <t>3751930064</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:28:32</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44162.64481481481</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16243,10 +15829,8 @@
           <t>3751787832</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:26:51</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44162.64364583333</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16319,10 +15903,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:25:44</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44162.64287037037</v>
       </c>
       <c r="I218" t="n">
         <v>2</v>
@@ -16386,10 +15968,8 @@
           <t>3751834968</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:25:10</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44162.64247685186</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16457,10 +16037,8 @@
           <t>3751911994</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:24:23</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44162.64193287037</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16528,10 +16106,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:22:25</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44162.64056712963</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16598,10 +16174,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:21:53</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44162.64019675926</v>
       </c>
       <c r="I222" t="n">
         <v>8</v>
@@ -16677,10 +16251,8 @@
           <t>3751902856</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:15</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44162.6390625</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16748,10 +16320,8 @@
           <t>3751902796</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:20:10</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44162.63900462963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16824,10 +16394,8 @@
           <t>3751860235</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:19:17</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44162.63839120371</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16903,10 +16471,8 @@
           <t>3751901547</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:18:41</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44162.63797453704</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16974,10 +16540,8 @@
           <t>3751901130</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:18:14</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44162.63766203704</v>
       </c>
       <c r="I227" t="n">
         <v>4</v>
@@ -17045,10 +16609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:17:51</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44162.63739583334</v>
       </c>
       <c r="I228" t="n">
         <v>8</v>
@@ -17124,10 +16686,8 @@
           <t>3751812409</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:17:33</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44162.6371875</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17203,10 +16763,8 @@
           <t>3751892195</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:17:25</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44162.6370949074</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17287,10 +16845,8 @@
           <t>3751866893</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:17:03</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44162.63684027778</v>
       </c>
       <c r="I231" t="n">
         <v>23</v>
@@ -17366,10 +16922,8 @@
           <t>3751805740</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:16:57</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44162.63677083333</v>
       </c>
       <c r="I232" t="n">
         <v>6</v>
@@ -17429,10 +16983,8 @@
           <t>3751889247</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:16:06</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44162.63618055556</v>
       </c>
       <c r="I233" t="n">
         <v>8</v>
@@ -17496,10 +17048,8 @@
           <t>3751884446</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:14:53</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44162.63533564815</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17563,10 +17113,8 @@
           <t>3751805740</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:13:52</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44162.63462962963</v>
       </c>
       <c r="I235" t="n">
         <v>11</v>
@@ -17630,10 +17178,8 @@
           <t>3751812409</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:13:44</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44162.63453703704</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17709,10 +17255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:13:41</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44162.63450231482</v>
       </c>
       <c r="I237" t="n">
         <v>7</v>
@@ -17784,10 +17328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:12:54</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44162.63395833333</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17861,10 +17403,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:12:40</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44162.63379629629</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17928,10 +17468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:09:41</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44162.63172453704</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17999,10 +17537,8 @@
           <t>3751812409</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:08:12</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44162.63069444444</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18067,10 +17603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:07:32</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44162.63023148148</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -18143,10 +17677,8 @@
           <t>3751809789</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:07:03</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44162.62989583334</v>
       </c>
       <c r="I243" t="n">
         <v>2</v>
@@ -18210,10 +17742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:05:50</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44162.62905092593</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18281,10 +17811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:05:38</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44162.62891203703</v>
       </c>
       <c r="I245" t="n">
         <v>14</v>
@@ -18361,10 +17889,8 @@
           <t>3751866893</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:05:38</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44162.62891203703</v>
       </c>
       <c r="I246" t="n">
         <v>72</v>
@@ -18440,10 +17966,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:05:15</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44162.62864583333</v>
       </c>
       <c r="I247" t="n">
         <v>4</v>
@@ -18507,10 +18031,8 @@
           <t>3751860235</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:04:55</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44162.62841435185</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18575,10 +18097,8 @@
           <t>3751758799</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:04:45</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44162.62829861111</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18642,10 +18162,8 @@
           <t>3751866158</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:04:43</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44162.62827546296</v>
       </c>
       <c r="I250" t="n">
         <v>4</v>
@@ -18721,10 +18239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:55</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44162.62702546296</v>
       </c>
       <c r="I251" t="n">
         <v>219</v>
@@ -18792,10 +18308,8 @@
           <t>3751842242</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:51</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44162.62697916666</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -18871,10 +18385,8 @@
           <t>3751860235</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:02:16</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44162.62657407407</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18956,10 +18468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:00:40</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44162.62546296296</v>
       </c>
       <c r="I254" t="n">
         <v>225</v>
@@ -19035,10 +18545,8 @@
           <t>3751855915</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:00:34</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44162.62539351852</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19114,10 +18622,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-27 15:00:18</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44162.62520833333</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19194,10 +18700,8 @@
           <t>3751842242</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:25</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44162.62459490741</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19261,10 +18765,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:25</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44162.62459490741</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19340,10 +18842,8 @@
           <t>3751814529</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:23</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44162.62457175926</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19407,10 +18907,8 @@
           <t>3751844763</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:12</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44162.62444444445</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19486,10 +18984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:59:02</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44162.62432870371</v>
       </c>
       <c r="I261" t="n">
         <v>13</v>
@@ -19555,10 +19051,8 @@
           <t>3751834968</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:58:52</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44162.62421296296</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19630,10 +19124,8 @@
           <t>3751843714</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:57:55</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44162.62355324074</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19701,10 +19193,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:57:47</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44162.62346064814</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19783,10 +19273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:52</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44162.62282407407</v>
       </c>
       <c r="I265" t="n">
         <v>18</v>
@@ -19869,10 +19357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:19</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44162.62244212963</v>
       </c>
       <c r="I266" t="n">
         <v>9</v>
@@ -19944,10 +19430,8 @@
           <t>3751842242</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:56:06</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44162.62229166667</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20024,10 +19508,8 @@
           <t>3751834968</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:55:52</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44162.62212962963</v>
       </c>
       <c r="I268" t="n">
         <v>9</v>
@@ -20095,10 +19577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:55:26</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44162.6218287037</v>
       </c>
       <c r="I269" t="n">
         <v>89</v>
@@ -20162,10 +19642,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:54:32</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44162.6212037037</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20241,10 +19719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:54:03</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44162.62086805556</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20312,10 +19788,8 @@
           <t>3751837705</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:53:28</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44162.62046296296</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20387,10 +19861,8 @@
           <t>3751832130</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:52:14</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44162.61960648148</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20458,10 +19930,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:47:43</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44162.61646990741</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20537,10 +20007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:47:36</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44162.61638888889</v>
       </c>
       <c r="I275" t="n">
         <v>128</v>
@@ -20616,10 +20084,8 @@
           <t>3751764523</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:47:27</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44162.61628472222</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20687,10 +20153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:47:20</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44162.61620370371</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20762,10 +20226,8 @@
           <t>3751814717</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:46:48</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44162.61583333334</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20833,10 +20295,8 @@
           <t>3751814529</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:46:33</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44162.61565972222</v>
       </c>
       <c r="I279" t="n">
         <v>31</v>
@@ -20904,10 +20364,8 @@
           <t>3751812409</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:46:23</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44162.61554398148</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -20984,10 +20442,8 @@
           <t>3751764523</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:46:01</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44162.61528935185</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21055,10 +20511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:45:41</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44162.61505787037</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21122,10 +20576,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:44:53</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44162.61450231481</v>
       </c>
       <c r="I283" t="n">
         <v>2</v>
@@ -21201,10 +20653,8 @@
           <t>3751755704</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:44:51</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44162.61447916667</v>
       </c>
       <c r="I284" t="n">
         <v>5</v>
@@ -21268,10 +20718,8 @@
           <t>3751787832</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:44:36</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44162.61430555556</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21346,10 +20794,8 @@
           <t>3751812409</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:55</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44162.61383101852</v>
       </c>
       <c r="I286" t="n">
         <v>12</v>
@@ -21425,10 +20871,8 @@
           <t>3751809789</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:43:03</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44162.61322916667</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -21505,10 +20949,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:41:22</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44162.61206018519</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21572,10 +21014,8 @@
           <t>3751803442</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:41:09</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44162.61190972223</v>
       </c>
       <c r="I289" t="n">
         <v>5</v>
@@ -21643,10 +21083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:41:02</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44162.6118287037</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21718,10 +21156,8 @@
           <t>3751803288</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:40:56</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44162.61175925926</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21789,10 +21225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:59</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44162.61040509259</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21868,10 +21302,8 @@
           <t>3751805740</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:31</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44162.61008101852</v>
       </c>
       <c r="I293" t="n">
         <v>30</v>
@@ -21943,10 +21375,8 @@
           <t>3751801355</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:21</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44162.60996527778</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22018,10 +21448,8 @@
           <t>3751806036</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:38:12</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44162.60986111111</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -22097,10 +21525,8 @@
           <t>3751805740</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:37:49</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44162.60959490741</v>
       </c>
       <c r="I296" t="n">
         <v>58</v>
@@ -22168,10 +21594,8 @@
           <t>3751797536</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:37:43</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44162.60952546296</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22239,10 +21663,8 @@
           <t>3751788163</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:36:25</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44162.60862268518</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22308,10 +21730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:35:25</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44162.60792824074</v>
       </c>
       <c r="I299" t="n">
         <v>23</v>
@@ -22383,10 +21803,8 @@
           <t>3751755704</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:35:18</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44162.60784722222</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22462,10 +21880,8 @@
           <t>3751762135</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:34:59</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44162.60762731481</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22533,10 +21949,8 @@
           <t>3751784559</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:34:08</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44162.60703703704</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22608,10 +22022,8 @@
           <t>3751788163</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:34:07</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44162.60702546296</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22675,10 +22087,8 @@
           <t>3751791193</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:34:06</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44162.60701388889</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22754,10 +22164,8 @@
           <t>3751787974</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:33:53</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44162.60686342593</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -22827,10 +22235,8 @@
           <t>3751787832</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:33:41</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44162.60672453704</v>
       </c>
       <c r="I306" t="n">
         <v>4</v>
@@ -22902,10 +22308,8 @@
           <t>3751764523</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:32:59</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44162.60623842593</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22970,10 +22374,8 @@
           <t>3751755704</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:32:45</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44162.60607638889</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23037,10 +22439,8 @@
           <t>3751783224</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:32:33</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44162.6059375</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23115,10 +22515,8 @@
           <t>3751791309</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:32:11</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44162.60568287037</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -23186,10 +22584,8 @@
           <t>3751791193</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:32:02</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44162.6055787037</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23257,10 +22653,8 @@
           <t>3751791111</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:56</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44162.60550925926</v>
       </c>
       <c r="I312" t="n">
         <v>2</v>
@@ -23324,10 +22718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:18</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44162.60506944444</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23402,10 +22794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:03</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44162.60489583333</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23481,10 +22871,8 @@
           <t>3751758799</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:31:02</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44162.60488425926</v>
       </c>
       <c r="I315" t="n">
         <v>3</v>
@@ -23548,10 +22936,8 @@
           <t>3751785624</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:49</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44162.6047337963</v>
       </c>
       <c r="I316" t="n">
         <v>3</v>
@@ -23615,10 +23001,8 @@
           <t>3751779948</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:28</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44162.60449074074</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23682,10 +23066,8 @@
           <t>3751785197</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:17</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44162.60436342593</v>
       </c>
       <c r="I318" t="n">
         <v>4</v>
@@ -23753,10 +23135,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:15</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44162.60434027778</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23820,10 +23200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:05</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44162.60422453703</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23891,10 +23269,8 @@
           <t>3751758799</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:30:01</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44162.60417824074</v>
       </c>
       <c r="I321" t="n">
         <v>25</v>
@@ -23966,10 +23342,8 @@
           <t>3751755704</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:29:59</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44162.60415509259</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24033,10 +23407,8 @@
           <t>3751774793</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:29:47</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44162.6040162037</v>
       </c>
       <c r="I323" t="n">
         <v>4</v>
@@ -24104,10 +23476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:29:24</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44162.60375</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24179,10 +23549,8 @@
           <t>3751780558</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:29:18</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44162.60368055556</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24246,10 +23614,8 @@
           <t>3751776014</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:29:03</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44162.60350694445</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24313,10 +23679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:28:30</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44162.603125</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24380,10 +23744,8 @@
           <t>3751778425</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:28:30</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44162.603125</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24459,10 +23821,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:28:27</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44162.60309027778</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24538,10 +23898,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:28:23</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44162.60304398148</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24618,10 +23976,8 @@
           <t>3751755704</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:28:11</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44162.60290509259</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24685,10 +24041,8 @@
           <t>3751762135</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:28:07</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44162.60285879629</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24760,10 +24114,8 @@
           <t>3751778088</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:28:04</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44162.60282407407</v>
       </c>
       <c r="I333" t="n">
         <v>4</v>
@@ -24839,10 +24191,8 @@
           <t>3751751256</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:27:51</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44162.60267361111</v>
       </c>
       <c r="I334" t="n">
         <v>5</v>
@@ -24907,10 +24257,8 @@
           <t>3751773317</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:27:44</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44162.60259259259</v>
       </c>
       <c r="I335" t="n">
         <v>2</v>
@@ -24974,10 +24322,8 @@
           <t>3751764523</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:27:10</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44162.60219907408</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25045,10 +24391,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:27:04</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44162.60212962963</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25124,10 +24468,8 @@
           <t>3751757124</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:26:56</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44162.60203703704</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25203,10 +24545,8 @@
           <t>3751768473</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:26:38</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44162.6018287037</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25271,10 +24611,8 @@
           <t>3751757124</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:26:05</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44162.60144675926</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25338,10 +24676,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:25:58</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44162.60136574074</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25413,10 +24749,8 @@
           <t>3751758799</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:25:48</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44162.60125</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25480,10 +24814,8 @@
           <t>3751776014</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:25:27</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44162.60100694445</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25547,10 +24879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:25:27</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44162.60100694445</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25622,10 +24952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:25:12</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44162.60083333333</v>
       </c>
       <c r="I345" t="n">
         <v>540</v>
@@ -25697,10 +25025,8 @@
           <t>3751775688</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:25:02</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44162.60071759259</v>
       </c>
       <c r="I346" t="n">
         <v>23</v>
@@ -25764,10 +25090,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:24:56</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44162.60064814815</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25835,10 +25159,8 @@
           <t>3751751256</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:24:55</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44162.60063657408</v>
       </c>
       <c r="I348" t="n">
         <v>5</v>
@@ -25902,10 +25224,8 @@
           <t>3751775073</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:24:17</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44162.60019675926</v>
       </c>
       <c r="I349" t="n">
         <v>9</v>
@@ -25970,10 +25290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:23:53</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44162.59991898148</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26045,10 +25363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:23:53</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44162.59991898148</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26120,10 +25436,8 @@
           <t>3751764523</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:23:35</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44162.59971064814</v>
       </c>
       <c r="I352" t="n">
         <v>8</v>
@@ -26191,10 +25505,8 @@
           <t>3751762135</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:23:19</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44162.59952546296</v>
       </c>
       <c r="I353" t="n">
         <v>16</v>
@@ -26258,10 +25570,8 @@
           <t>3751765764</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:23:16</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44162.59949074074</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26338,10 +25648,8 @@
           <t>3751757124</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:23:16</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44162.59949074074</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26429,10 +25737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:23:12</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44162.59944444444</v>
       </c>
       <c r="I356" t="n">
         <v>109</v>
@@ -26496,10 +25802,8 @@
           <t>3751770042</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:23:11</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44162.59943287037</v>
       </c>
       <c r="I357" t="n">
         <v>3</v>
@@ -26571,10 +25875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:22:29</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44162.59894675926</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26642,10 +25944,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:22:02</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44162.59863425926</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26711,10 +26011,8 @@
           <t>3751757124</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:21:54</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44162.59854166667</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26778,10 +26076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:21:26</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44162.59821759259</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26853,10 +26149,8 @@
           <t>3751758799</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:21:24</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44162.59819444444</v>
       </c>
       <c r="I362" t="n">
         <v>67</v>
@@ -26932,10 +26226,8 @@
           <t>3751757124</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:21:16</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44162.59810185185</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27011,10 +26303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:20:46</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44162.59775462963</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27078,10 +26368,8 @@
           <t>3751762135</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:20:30</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44162.59756944444</v>
       </c>
       <c r="I365" t="n">
         <v>3</v>
@@ -27149,10 +26437,8 @@
           <t>3751757739</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:19:59</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44162.59721064815</v>
       </c>
       <c r="I366" t="n">
         <v>2</v>
@@ -27229,10 +26515,8 @@
           <t>3751733789</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:19:25</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44162.59681712963</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27300,10 +26584,8 @@
           <t>3751757124</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:19:08</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44162.59662037037</v>
       </c>
       <c r="I368" t="n">
         <v>25</v>
@@ -27377,10 +26659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:18:36</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44162.59625</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27447,10 +26727,8 @@
           <t>3751755704</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:18:32</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44162.5962037037</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27514,10 +26792,8 @@
           <t>3751752005</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:18:27</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44162.59614583333</v>
       </c>
       <c r="I371" t="n">
         <v>14</v>
@@ -27593,10 +26869,8 @@
           <t>3751755704</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:18:25</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44162.59612268519</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27672,10 +26946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:17:42</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44162.595625</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27747,10 +27019,8 @@
           <t>3751751256</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:17:33</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44162.59552083333</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27818,10 +27088,8 @@
           <t>3751751067</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:17:19</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44162.59535879629</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27889,10 +27157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:17:18</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44162.59534722222</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27964,10 +27230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:17:14</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44162.59530092592</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28044,10 +27308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:17:11</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44162.5952662037</v>
       </c>
       <c r="I378" t="n">
         <v>122</v>
@@ -28115,10 +27377,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:17:04</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44162.59518518519</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28194,10 +27454,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:16:28</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44162.59476851852</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28265,10 +27523,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:15:59</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44162.59443287037</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28344,10 +27600,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:15:53</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44162.59436342592</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28417,10 +27671,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:15:19</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44162.59396990741</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28484,10 +27736,8 @@
           <t>3751743672</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:14:31</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44162.59341435185</v>
       </c>
       <c r="I384" t="n">
         <v>5</v>
@@ -28555,10 +27805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:14:27</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44162.59336805555</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28622,10 +27870,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:14:26</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44162.59335648148</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28701,10 +27947,8 @@
           <t>3751747274</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:13:57</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44162.59302083333</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28780,10 +28024,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:12:56</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44162.59231481481</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28859,10 +28101,8 @@
           <t>3751735774</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:12:15</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44162.59184027778</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28938,10 +28178,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:11:50</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44162.59155092593</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29017,10 +28255,8 @@
           <t>3751745648</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:11:47</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44162.59151620371</v>
       </c>
       <c r="I391" t="n">
         <v>3</v>
@@ -29088,10 +28324,8 @@
           <t>3751736466</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:11:39</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44162.59142361111</v>
       </c>
       <c r="I392" t="n">
         <v>3</v>
@@ -29159,10 +28393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:11:18</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44162.59118055556</v>
       </c>
       <c r="I393" t="n">
         <v>131</v>
@@ -29238,10 +28470,8 @@
           <t>3751735774</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:10:45</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44162.59079861111</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29306,10 +28536,8 @@
           <t>3751735723</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:10:41</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44162.59075231481</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29385,10 +28613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:10:36</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44162.59069444444</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29448,10 +28674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:10:21</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44162.59052083334</v>
       </c>
       <c r="I397" t="n">
         <v>973</v>
@@ -29515,10 +28739,8 @@
           <t>3751740120</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:10:16</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44162.59046296297</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29594,10 +28816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:10:08</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44162.59037037037</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29669,10 +28889,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:09:39</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44162.59003472222</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29748,10 +28966,8 @@
           <t>3751733789</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:09:20</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44162.58981481481</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29815,10 +29031,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:08:46</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44162.5894212963</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29890,10 +29104,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:08:26</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44162.58918981482</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29969,10 +29181,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:08:22</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44162.58914351852</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30040,10 +29250,8 @@
           <t>3751728449</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:08:18</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44162.58909722222</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30111,10 +29319,8 @@
           <t>3751732882</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:08:09</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44162.58899305556</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30182,10 +29388,8 @@
           <t>3751727839</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:07:35</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44162.58859953703</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30261,10 +29465,8 @@
           <t>3751727458</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:07:07</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44162.58827546296</v>
       </c>
       <c r="I408" t="n">
         <v>10</v>
@@ -30336,10 +29538,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:06:54</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44162.588125</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30407,10 +29607,8 @@
           <t>3751725740</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:06:39</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44162.58795138889</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30482,10 +29680,8 @@
           <t>3751727023</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:06:35</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44162.58790509259</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30557,10 +29753,8 @@
           <t>3751722099</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:06:00</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44162.5875</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30628,10 +29822,8 @@
           <t>3751731244</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:05:59</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44162.58748842592</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30699,10 +29891,8 @@
           <t>3751731190</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:05:56</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44162.5874537037</v>
       </c>
       <c r="I414" t="n">
         <v>3</v>
@@ -30778,10 +29968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:05:42</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44162.58729166666</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30857,10 +30045,8 @@
           <t>3751714970</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:05:00</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44162.58680555555</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30924,10 +30110,8 @@
           <t>3751725634</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:04:57</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44162.58677083333</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30999,10 +30183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:04:40</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44162.58657407408</v>
       </c>
       <c r="I418" t="n">
         <v>15</v>
@@ -31066,10 +30248,8 @@
           <t>3751730204</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:04:39</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44162.5865625</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31138,10 +30318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:04:29</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44162.58644675926</v>
       </c>
       <c r="I420" t="n">
         <v>3</v>
@@ -31201,10 +30379,8 @@
           <t>3751714970</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:04:13</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44162.58626157408</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31268,10 +30444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:04:10</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44162.58622685185</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31347,10 +30521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:04:10</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44162.58622685185</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31422,10 +30594,8 @@
           <t>3751719573</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:03:53</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44162.58603009259</v>
       </c>
       <c r="I424" t="n">
         <v>4</v>
@@ -31497,10 +30667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:03:45</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44162.5859375</v>
       </c>
       <c r="I425" t="n">
         <v>125</v>
@@ -31572,10 +30740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:03:39</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44162.58586805555</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -31647,10 +30813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:03:34</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44162.58581018518</v>
       </c>
       <c r="I427" t="n">
         <v>16</v>
@@ -31718,10 +30882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:03:28</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44162.58574074074</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31789,10 +30951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:02:33</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44162.58510416667</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31868,10 +31028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:02:30</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44162.58506944445</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31931,10 +31089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:02:29</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44162.58505787037</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -32006,10 +31162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:02:06</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44162.58479166667</v>
       </c>
       <c r="I432" t="n">
         <v>29</v>
@@ -32085,10 +31239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:01:39</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44162.58447916667</v>
       </c>
       <c r="I433" t="n">
         <v>6</v>
@@ -32156,10 +31308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:01:27</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44162.58434027778</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32250,10 +31400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:01:11</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44162.58415509259</v>
       </c>
       <c r="I435" t="n">
         <v>412</v>
@@ -32317,10 +31465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:00:47</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44162.58387731481</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32380,10 +31526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:00:37</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44162.58376157407</v>
       </c>
       <c r="I437" t="n">
         <v>8</v>
@@ -32455,10 +31599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:00:31</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44162.58369212963</v>
       </c>
       <c r="I438" t="n">
         <v>2</v>
@@ -32534,10 +31676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-27 14:00:25</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44162.58362268518</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
